--- a/output/fit_clients/fit_round_274.xlsx
+++ b/output/fit_clients/fit_round_274.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2338901949.15757</v>
+        <v>2169856930.160258</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08924175642098479</v>
+        <v>0.09141195630526255</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02832343377114376</v>
+        <v>0.02749971034916918</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1169451015.824507</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1683716921.634061</v>
+        <v>2644350860.392174</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1586072308647117</v>
+        <v>0.1699490276084785</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04885793415948125</v>
+        <v>0.0432213605297668</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>841858451.8886759</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3395113715.857045</v>
+        <v>3248050678.472528</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1146403750120123</v>
+        <v>0.160792725249933</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02907267892776923</v>
+        <v>0.03651849795748412</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>99</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1697556829.248269</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4127860352.252414</v>
+        <v>3713041501.778174</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09999444299780912</v>
+        <v>0.07758356109602191</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04524403383170426</v>
+        <v>0.0481184369028201</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>102</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2063930171.334308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2814489659.879782</v>
+        <v>2647184758.278369</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09214702252739056</v>
+        <v>0.1000132505413785</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05619678571772559</v>
+        <v>0.04314200055071798</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>49</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1407244771.384421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1952322704.227315</v>
+        <v>2103468573.673845</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07594572710981494</v>
+        <v>0.08643543404108801</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03415384523407567</v>
+        <v>0.0400400688554725</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>86</v>
-      </c>
-      <c r="J7" t="n">
-        <v>976161417.8401246</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2908673410.54914</v>
+        <v>3207415630.783974</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1864972069442092</v>
+        <v>0.2013448105669539</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02600541213458943</v>
+        <v>0.02865778829783543</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>87</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1454336753.449044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1937659193.802748</v>
+        <v>1643648978.22296</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1524784624368824</v>
+        <v>0.1494209660922421</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02438461488000744</v>
+        <v>0.03468275922746335</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>968829632.1639109</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4790537097.839529</v>
+        <v>3659553230.828117</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1584335998330919</v>
+        <v>0.1782963820792214</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05065675977156702</v>
+        <v>0.04172071119631834</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>115</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2395268632.014948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3112275498.061445</v>
+        <v>2902024521.077</v>
       </c>
       <c r="F11" t="n">
-        <v>0.172995093725061</v>
+        <v>0.1724636063825427</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04751841384249679</v>
+        <v>0.04564445107416682</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>113</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1556137699.841954</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2868222848.917216</v>
+        <v>3266374032.960537</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1865721704796441</v>
+        <v>0.1341103903870455</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04742835999381725</v>
+        <v>0.04782061416720867</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>93</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1434111430.416336</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5339440629.139382</v>
+        <v>5166170787.384053</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08797072301698124</v>
+        <v>0.08480778931698316</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02155481149388454</v>
+        <v>0.02907619770755977</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>92</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2669720301.466287</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3113333810.414786</v>
+        <v>2915406675.333293</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1843477599639287</v>
+        <v>0.1613064304837575</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03962823754346149</v>
+        <v>0.03615636348286458</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>91</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1556666931.436262</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1607511357.307325</v>
+        <v>1660254554.337661</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07936368263983161</v>
+        <v>0.08243364158143383</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03616376986826554</v>
+        <v>0.04340455742247012</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>803755788.530097</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2450706028.545487</v>
+        <v>2761631949.385388</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1068696697366045</v>
+        <v>0.0873948685142701</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04055947698062629</v>
+        <v>0.04939645836338667</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>52</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1225353049.485169</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4923470488.970852</v>
+        <v>5272618691.316431</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1605340895088262</v>
+        <v>0.1428873707992249</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03527303609478162</v>
+        <v>0.03682362830462699</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>80</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2461735233.3883</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2874121307.297593</v>
+        <v>3970879692.327348</v>
       </c>
       <c r="F18" t="n">
-        <v>0.14656060248305</v>
+        <v>0.149865719900643</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02809173704131947</v>
+        <v>0.03036735095050072</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>90</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1437060693.020841</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1369895376.134594</v>
+        <v>1056943097.201904</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1739586327583532</v>
+        <v>0.120620141671162</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02119800890140798</v>
+        <v>0.01771365804996997</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>684947807.3387272</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2146839948.388556</v>
+        <v>2517392769.778223</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1561353562641038</v>
+        <v>0.160301090408049</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0311145514102944</v>
+        <v>0.02658642928793594</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>42</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1073419984.895354</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1915506019.810069</v>
+        <v>2081598604.111836</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09851322936565994</v>
+        <v>0.07813228440465403</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03985350441302199</v>
+        <v>0.02922128911816107</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>22</v>
-      </c>
-      <c r="J21" t="n">
-        <v>957753053.9486705</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3748557986.725142</v>
+        <v>3064002235.62844</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1017787633808514</v>
+        <v>0.1418129328528873</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05144175495826253</v>
+        <v>0.05415015860490371</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>75</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1874279010.062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1516971320.413611</v>
+        <v>1041385758.493156</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1435813955928817</v>
+        <v>0.1494742189924206</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04498809355867148</v>
+        <v>0.03418147201211785</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>758485643.2779393</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3979729736.102925</v>
+        <v>2628463127.783398</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1358513185928333</v>
+        <v>0.1342772486093053</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02483302802291786</v>
+        <v>0.03759933358033977</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>80</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1989864837.406811</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1013828785.323647</v>
+        <v>1103833751.561207</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1214125251690819</v>
+        <v>0.1077763853849236</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02605411334915124</v>
+        <v>0.02424901359779609</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>506914453.4663158</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1119062480.329266</v>
+        <v>973865719.8873242</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07977527350176851</v>
+        <v>0.1085720584115236</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03488802445862735</v>
+        <v>0.03081752742093926</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>559531241.3562077</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4718548050.370102</v>
+        <v>3211473616.632329</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1469234188874983</v>
+        <v>0.1379235325667009</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01858062510368343</v>
+        <v>0.01741470087038385</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>67</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2359273999.672682</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2750774121.104393</v>
+        <v>3175811249.822781</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1520737695747359</v>
+        <v>0.1122269396466405</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03178455854262634</v>
+        <v>0.04700199871227872</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>88</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1375387050.130858</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5394082194.091614</v>
+        <v>4930615386.68075</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1074002898620867</v>
+        <v>0.1447115632827055</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03080191059168778</v>
+        <v>0.02910676914963157</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>121</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2697041017.280214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2300869703.419223</v>
+        <v>2148892800.728349</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1057312938259564</v>
+        <v>0.09424262992299394</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03935102694311637</v>
+        <v>0.03515129349421488</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1150434923.431882</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1418060351.25569</v>
+        <v>1011317765.470373</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09638362104153472</v>
+        <v>0.07195421129206192</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05139007660936597</v>
+        <v>0.0396579994613457</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>709030075.7501613</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1755204447.671448</v>
+        <v>1898554380.145967</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1099875860923765</v>
+        <v>0.1147944006969043</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02857074134437456</v>
+        <v>0.03706311433554815</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>877602345.0375973</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2031126986.16952</v>
+        <v>2803265072.146416</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1445663476697392</v>
+        <v>0.1944684902124612</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0531047941799707</v>
+        <v>0.05123762167160559</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>84</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1015563571.218954</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1058296203.979903</v>
+        <v>1286618009.526331</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1168264547452223</v>
+        <v>0.1201632172390895</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01827358927676711</v>
+        <v>0.027432478305255</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>529148130.2831937</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1181808915.633426</v>
+        <v>1337607437.945807</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1063432005447531</v>
+        <v>0.07767447607463593</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04281367202070056</v>
+        <v>0.04103284118685466</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>590904436.5178682</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2864820390.114073</v>
+        <v>2768708265.346848</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1518296605194877</v>
+        <v>0.1566249852014636</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01750055210276484</v>
+        <v>0.02046531091232518</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>68</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1432410187.778867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2334297557.170046</v>
+        <v>2832219227.811584</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1004816959387257</v>
+        <v>0.07495370693037602</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02794015695250404</v>
+        <v>0.04223258118315908</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>73</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1167148851.840573</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1772355163.460671</v>
+        <v>1407482391.029133</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08176842436518821</v>
+        <v>0.08817321313546377</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03056200688693107</v>
+        <v>0.02837830700538983</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>886177592.5114795</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1372211057.689825</v>
+        <v>1364928504.587428</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1372770095650743</v>
+        <v>0.1726028664990147</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02942404086284431</v>
+        <v>0.02745938248517171</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>686105618.6830301</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1716624025.703519</v>
+        <v>1529867249.148114</v>
       </c>
       <c r="F40" t="n">
-        <v>0.09875749847800058</v>
+        <v>0.1336026553108988</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04260687967009873</v>
+        <v>0.04580892861266218</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>858311924.8324745</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2552815035.626127</v>
+        <v>2379951865.054502</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1271639184954611</v>
+        <v>0.1305479232828316</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0415814116219722</v>
+        <v>0.03952293286356244</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>68</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1276407537.964863</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3220844032.34022</v>
+        <v>2770036308.880561</v>
       </c>
       <c r="F42" t="n">
-        <v>0.101388302680195</v>
+        <v>0.1023024551660075</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04292153420754198</v>
+        <v>0.03229473920010985</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>92</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1610421991.801937</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2828486419.552718</v>
+        <v>2871625906.639232</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1636509847946755</v>
+        <v>0.1415227383156461</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02029884447145296</v>
+        <v>0.01656730894071924</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>98</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1414243225.404752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1923969103.283771</v>
+        <v>1835306051.844611</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09092452427248315</v>
+        <v>0.1006984268372269</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03357864209607037</v>
+        <v>0.03204748497721608</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>961984642.7976817</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2498186101.660841</v>
+        <v>1934015967.648949</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1776416851453468</v>
+        <v>0.1201961800969449</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04716065373160523</v>
+        <v>0.04576314260834223</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1249093091.936105</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4384478425.24061</v>
+        <v>4539686263.111571</v>
       </c>
       <c r="F46" t="n">
-        <v>0.151802259907989</v>
+        <v>0.1683979235301213</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03987262000140887</v>
+        <v>0.03870690677350943</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>98</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2192239204.199295</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5112267919.506452</v>
+        <v>3662865511.209289</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1618029603737912</v>
+        <v>0.2029205478143138</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04791246763909581</v>
+        <v>0.05901414120875235</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>74</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2556134021.940957</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4484647814.047934</v>
+        <v>2988723452.646656</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0952901159799804</v>
+        <v>0.09779431423361322</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0294565653872416</v>
+        <v>0.02715865156269</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>91</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2242323913.19903</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1239693820.806059</v>
+        <v>1792519566.201075</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1696682408522225</v>
+        <v>0.1536438499042891</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03606665723138198</v>
+        <v>0.0293119336853189</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>619846982.9044018</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2939341739.207021</v>
+        <v>2821515663.757291</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1369205650077555</v>
+        <v>0.1308922854361923</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03340647501930907</v>
+        <v>0.05299662901080096</v>
       </c>
       <c r="H50" t="b">
         <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>93</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1469670933.764882</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1388805148.688434</v>
+        <v>969963203.1105092</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1187788625457244</v>
+        <v>0.1578199132188205</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04050265469890724</v>
+        <v>0.04518015045774311</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>694402595.2995729</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4676579971.432973</v>
+        <v>4285844273.79192</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09228358324384876</v>
+        <v>0.1363270657250996</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05430477657261817</v>
+        <v>0.04969193953572664</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>113</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2338290002.373277</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2787834744.510327</v>
+        <v>2369530190.64358</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1364217908304342</v>
+        <v>0.1522732917395501</v>
       </c>
       <c r="G53" t="n">
-        <v>0.031497723250574</v>
+        <v>0.03491717252489767</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>80</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1393917419.335891</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4898456027.839699</v>
+        <v>4556446857.875706</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1160733865667269</v>
+        <v>0.1536063378065814</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03504455191711832</v>
+        <v>0.04213155599018608</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>91</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2449228148.551364</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3128457708.044845</v>
+        <v>3118765601.523232</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1602371661036074</v>
+        <v>0.2056838843143829</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02886932397683314</v>
+        <v>0.02979869936214054</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>73</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1564228790.452636</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1714480543.22262</v>
+        <v>1667399130.16721</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1585518231707079</v>
+        <v>0.1126208343726783</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05406864092124417</v>
+        <v>0.0461739021027743</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>857240282.0831677</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2924708584.404524</v>
+        <v>4491786307.757604</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1822338425361336</v>
+        <v>0.1522570686575931</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02056035584278249</v>
+        <v>0.01946563706898931</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>87</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1462354290.279131</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1299528946.876585</v>
+        <v>1514983164.884618</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1712615026801033</v>
+        <v>0.126089444846668</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03245840878057764</v>
+        <v>0.02401557197554876</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>649764522.8787796</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3637739642.670109</v>
+        <v>3942750528.520277</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1159241893214789</v>
+        <v>0.08701613411944778</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03536368309488957</v>
+        <v>0.03901490016049335</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>78</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1818869814.762688</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2370172641.421502</v>
+        <v>3738015314.903579</v>
       </c>
       <c r="F60" t="n">
-        <v>0.171890942181389</v>
+        <v>0.1725072207117457</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0258110773016831</v>
+        <v>0.02024695181686572</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>85</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1185086324.991172</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2104728066.869316</v>
+        <v>2077736568.939158</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1230680249412028</v>
+        <v>0.1240504162839834</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02161436626528395</v>
+        <v>0.02658105937275056</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>95</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1052364098.329312</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1422525299.737027</v>
+        <v>1279340974.462045</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1298639183036599</v>
+        <v>0.158691357050235</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03637407249870703</v>
+        <v>0.03107775545686891</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>711262621.295063</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4477836421.338272</v>
+        <v>3604242092.998183</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07785143929741913</v>
+        <v>0.06985463349458337</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04155436894266983</v>
+        <v>0.04306091968989206</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>78</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2238918251.715102</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5089266619.393126</v>
+        <v>4958403272.517798</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1683566861171511</v>
+        <v>0.1357777604095784</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02303382038084804</v>
+        <v>0.03143724701218849</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>85</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2544633422.172966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5882091182.10561</v>
+        <v>5995971895.954125</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1145274935238342</v>
+        <v>0.1116003820899095</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02012680987507933</v>
+        <v>0.0210754616111252</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>98</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2941045497.328039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5099315719.376225</v>
+        <v>3659404179.969204</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1225815014628125</v>
+        <v>0.1532863718837046</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04535993270661668</v>
+        <v>0.04528633348937637</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>80</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2549657892.14129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2537924611.225419</v>
+        <v>2708712827.129888</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0909350913959487</v>
+        <v>0.09050963368913016</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03629061703640993</v>
+        <v>0.04381835468775045</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>88</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1268962363.027928</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4817676903.83714</v>
+        <v>5416004706.985308</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1586420649491071</v>
+        <v>0.1135015066915869</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05127775392174709</v>
+        <v>0.04705848219391923</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>87</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2408838497.254809</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1893489602.71088</v>
+        <v>1616293576.316676</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1794707824746729</v>
+        <v>0.1692162930505632</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05250602605902104</v>
+        <v>0.04969437121990569</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>946744792.514244</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3237509243.867568</v>
+        <v>2527980084.648645</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0707989886261694</v>
+        <v>0.09074624879210577</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0346154201131021</v>
+        <v>0.0492658392015432</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>78</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1618754614.337186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4211683167.167631</v>
+        <v>4114750613.649221</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1121513058413399</v>
+        <v>0.1293699054401035</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03021927050890939</v>
+        <v>0.02468682272066295</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>101</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2105841630.408706</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1922695798.499234</v>
+        <v>2029125460.548299</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08341501529508891</v>
+        <v>0.1026154337654648</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04543838534618331</v>
+        <v>0.03727934629843487</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>961347858.0763189</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2224994016.104438</v>
+        <v>2467278856.582973</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1082598709282987</v>
+        <v>0.09359675507830095</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03712169990449284</v>
+        <v>0.04192159299561175</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>103</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1112497074.984092</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3842048037.937038</v>
+        <v>3363881290.068539</v>
       </c>
       <c r="F74" t="n">
-        <v>0.164397886278115</v>
+        <v>0.1561246974454423</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03427962185686667</v>
+        <v>0.03108211008365912</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>94</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1921024011.589983</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1698743252.674794</v>
+        <v>1819927769.30428</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1589175444637562</v>
+        <v>0.134680992340633</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03284930684242929</v>
+        <v>0.02835431279177244</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>849371618.7614257</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3501247194.115975</v>
+        <v>3500398688.080986</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09988729568511856</v>
+        <v>0.1234071832788037</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02545979812913533</v>
+        <v>0.02321710143082624</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>63</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1750623560.828564</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1884172424.712256</v>
+        <v>2024811126.870093</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1260253955327116</v>
+        <v>0.1602007625373635</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03080585255254068</v>
+        <v>0.02992357905308564</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>942086256.8063462</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3620486417.733803</v>
+        <v>3972839626.554839</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09359195369381566</v>
+        <v>0.09497537079128429</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05197714065171868</v>
+        <v>0.05571209132604966</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>95</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1810243201.751468</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1737138748.948858</v>
+        <v>1610970196.449471</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1474870241787022</v>
+        <v>0.128633216825955</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03862427456631643</v>
+        <v>0.03446753312678767</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>868569450.1739904</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3642823692.768168</v>
+        <v>3724241802.452948</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09944571935958806</v>
+        <v>0.08591705699740559</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03677162910989114</v>
+        <v>0.0351287610466772</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>57</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1821411828.08063</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3163866080.592327</v>
+        <v>3147403240.489405</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1127306583064466</v>
+        <v>0.09011140801953389</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02423603412405916</v>
+        <v>0.02100557083736851</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>65</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1581932972.468974</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4673333279.277899</v>
+        <v>5517022093.491855</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1475591212495808</v>
+        <v>0.1339589584779554</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01917267800632983</v>
+        <v>0.02277440489188669</v>
       </c>
       <c r="H82" t="b">
         <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>98</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2336666641.830135</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2403912501.358779</v>
+        <v>2187748641.281414</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1078101922600461</v>
+        <v>0.1545747430539268</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03991215361422062</v>
+        <v>0.04075723176743843</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1201956286.291346</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1644987620.67041</v>
+        <v>2498271855.163394</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09534163944082025</v>
+        <v>0.1000818224791391</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03906940863604092</v>
+        <v>0.04536911214712411</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>822493867.3343607</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3179641858.844224</v>
+        <v>3514545711.943264</v>
       </c>
       <c r="F85" t="n">
-        <v>0.17745156438857</v>
+        <v>0.1834738496970739</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04967920515672817</v>
+        <v>0.04794386810640879</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>104</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1589821009.39311</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1928365463.407471</v>
+        <v>2587610308.014206</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1533215254239</v>
+        <v>0.1414677699845386</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02284102611125433</v>
+        <v>0.01743718625692383</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>35</v>
-      </c>
-      <c r="J86" t="n">
-        <v>964182749.3460002</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1300187173.224396</v>
+        <v>1145361321.678554</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1308835136088569</v>
+        <v>0.1645808379988573</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03608573744136584</v>
+        <v>0.04025200841059327</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>650093667.8845949</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2481856238.726905</v>
+        <v>3196265820.778341</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1253222808763849</v>
+        <v>0.1180392435643219</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03315479362001678</v>
+        <v>0.0315076348720803</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>108</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1240928098.600859</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2965166402.871022</v>
+        <v>3486773044.424291</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1445744337208727</v>
+        <v>0.1260592846747244</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0329077632122098</v>
+        <v>0.02721160056822044</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>93</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1482583242.095755</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1707665859.077245</v>
+        <v>1546573279.645709</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09697959724282759</v>
+        <v>0.1286203350247546</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05416763023343713</v>
+        <v>0.04818915099469344</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>853832946.2462187</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1509331343.257396</v>
+        <v>1329401449.074313</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1492669951324283</v>
+        <v>0.1474091618253328</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04003682391120045</v>
+        <v>0.03811687693558905</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>754665709.3008968</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2668854160.360135</v>
+        <v>2076532293.209148</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06858589860766798</v>
+        <v>0.09434035417883574</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0466333772555135</v>
+        <v>0.03630925976764322</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>68</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1334427076.874933</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5033150556.812597</v>
+        <v>4132856053.855461</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1313373914259501</v>
+        <v>0.1013947972118725</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03579538391279723</v>
+        <v>0.03898167620506417</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>81</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2516575212.230839</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2285280758.122976</v>
+        <v>1611384437.353138</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1304942887876801</v>
+        <v>0.142625457214219</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04182026899484059</v>
+        <v>0.03262554902318726</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1142640414.530115</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2822818908.364076</v>
+        <v>3225918973.465793</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08679837267889802</v>
+        <v>0.136884926600233</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03989745560495409</v>
+        <v>0.04830035360962149</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>66</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1411409466.799639</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1711483193.75421</v>
+        <v>1770674092.688804</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1150999175975836</v>
+        <v>0.0992416143847383</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02972473783820351</v>
+        <v>0.03445145927854575</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>855741614.6482513</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3642345157.875808</v>
+        <v>4224525327.421611</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1263380483092853</v>
+        <v>0.1411548281041427</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02070708316005365</v>
+        <v>0.0190001693594834</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>88</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1821172606.550203</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2626858857.335229</v>
+        <v>3065661693.100784</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1202171975787013</v>
+        <v>0.08527996717142507</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02812117888670296</v>
+        <v>0.02701493402338067</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>74</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1313429388.053706</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2601140734.87465</v>
+        <v>3206804442.37198</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1127961019644803</v>
+        <v>0.1014841567103606</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02788959885420203</v>
+        <v>0.02348500684959707</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>86</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1300570324.533981</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4637414270.061324</v>
+        <v>3166394294.766881</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1644947757997984</v>
+        <v>0.1245544537615444</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02322614080211467</v>
+        <v>0.01973563253759615</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>85</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2318707256.598853</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2391810005.057899</v>
+        <v>3092560968.736902</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1676746155935005</v>
+        <v>0.1972540607847599</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05770501243933552</v>
+        <v>0.04252019972325704</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>109</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1195905011.214482</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_274.xlsx
+++ b/output/fit_clients/fit_round_274.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2169856930.160258</v>
+        <v>2525086957.451881</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09141195630526255</v>
+        <v>0.07854908696770109</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02749971034916918</v>
+        <v>0.02837097674187277</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2644350860.392174</v>
+        <v>2408478758.280482</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1699490276084785</v>
+        <v>0.169999479713742</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0432213605297668</v>
+        <v>0.0376140497724099</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3248050678.472528</v>
+        <v>4398174222.920388</v>
       </c>
       <c r="F4" t="n">
-        <v>0.160792725249933</v>
+        <v>0.1030982963207228</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03651849795748412</v>
+        <v>0.0376082944852271</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3713041501.778174</v>
+        <v>3730285196.363435</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07758356109602191</v>
+        <v>0.1069471900956664</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0481184369028201</v>
+        <v>0.03960627603195475</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2647184758.278369</v>
+        <v>2244342945.665275</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1000132505413785</v>
+        <v>0.1060243356552408</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04314200055071798</v>
+        <v>0.04078121681363779</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2103468573.673845</v>
+        <v>3043984999.533576</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08643543404108801</v>
+        <v>0.1000274234150678</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0400400688554725</v>
+        <v>0.04492346089631295</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3207415630.783974</v>
+        <v>3433210551.015606</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2013448105669539</v>
+        <v>0.1970450956252661</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02865778829783543</v>
+        <v>0.03252303092626833</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1643648978.22296</v>
+        <v>1681939798.366938</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1494209660922421</v>
+        <v>0.152978396462142</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03468275922746335</v>
+        <v>0.03178376981378013</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3659553230.828117</v>
+        <v>4457314336.509969</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1782963820792214</v>
+        <v>0.1473885999546347</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04172071119631834</v>
+        <v>0.04027667920424622</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2902024521.077</v>
+        <v>3991067482.363943</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1724636063825427</v>
+        <v>0.162319216218194</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04564445107416682</v>
+        <v>0.04773152084087651</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3266374032.960537</v>
+        <v>2014538177.29276</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1341103903870455</v>
+        <v>0.1735886629957686</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04782061416720867</v>
+        <v>0.05367789573966611</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5166170787.384053</v>
+        <v>4577057603.193301</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08480778931698316</v>
+        <v>0.07159878270557304</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02907619770755977</v>
+        <v>0.02135413065004635</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2915406675.333293</v>
+        <v>3559583734.424636</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1613064304837575</v>
+        <v>0.1889688310222044</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03615636348286458</v>
+        <v>0.03045462057939943</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1660254554.337661</v>
+        <v>1840739650.460577</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08243364158143383</v>
+        <v>0.06989933199709839</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04340455742247012</v>
+        <v>0.04714815288178206</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2761631949.385388</v>
+        <v>2219314060.585875</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0873948685142701</v>
+        <v>0.1063097057329638</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04939645836338667</v>
+        <v>0.03875538838400791</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5272618691.316431</v>
+        <v>4879350086.022394</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1428873707992249</v>
+        <v>0.1142703667397454</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03682362830462699</v>
+        <v>0.04753881994945614</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3970879692.327348</v>
+        <v>2979353593.063725</v>
       </c>
       <c r="F18" t="n">
-        <v>0.149865719900643</v>
+        <v>0.1546523863014486</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03036735095050072</v>
+        <v>0.03007211591273888</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1056943097.201904</v>
+        <v>1344225349.137203</v>
       </c>
       <c r="F19" t="n">
-        <v>0.120620141671162</v>
+        <v>0.1310433736182644</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01771365804996997</v>
+        <v>0.0215144929839785</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2517392769.778223</v>
+        <v>1964978540.130567</v>
       </c>
       <c r="F20" t="n">
-        <v>0.160301090408049</v>
+        <v>0.153531251056835</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02658642928793594</v>
+        <v>0.02637447438768294</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2081598604.111836</v>
+        <v>2195343980.725475</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07813228440465403</v>
+        <v>0.08602825579834925</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02922128911816107</v>
+        <v>0.03632776985904573</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3064002235.62844</v>
+        <v>2986143984.752652</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1418129328528873</v>
+        <v>0.1144049468402867</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05415015860490371</v>
+        <v>0.04031098906975584</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1041385758.493156</v>
+        <v>1521108472.113406</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1494742189924206</v>
+        <v>0.1554462566997251</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03418147201211785</v>
+        <v>0.05489414867431228</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2628463127.783398</v>
+        <v>2742269596.032331</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1342772486093053</v>
+        <v>0.1352307051602339</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03759933358033977</v>
+        <v>0.03014413310474491</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1103833751.561207</v>
+        <v>1179014160.387844</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1077763853849236</v>
+        <v>0.07612497160309671</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02424901359779609</v>
+        <v>0.02408268844242715</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>973865719.8873242</v>
+        <v>1332504864.867114</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1085720584115236</v>
+        <v>0.09693612642135323</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03081752742093926</v>
+        <v>0.03750405620990326</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3211473616.632329</v>
+        <v>4457927022.294601</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1379235325667009</v>
+        <v>0.153867458554182</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01741470087038385</v>
+        <v>0.01972789064582735</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3175811249.822781</v>
+        <v>3451973702.533432</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1122269396466405</v>
+        <v>0.1436315673427856</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04700199871227872</v>
+        <v>0.0340565866000284</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4930615386.68075</v>
+        <v>5286043999.767075</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1447115632827055</v>
+        <v>0.1160852962446199</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02910676914963157</v>
+        <v>0.0355728185631155</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2148892800.728349</v>
+        <v>1838881842.411335</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09424262992299394</v>
+        <v>0.1378788334299983</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03515129349421488</v>
+        <v>0.03493182129278667</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1011317765.470373</v>
+        <v>1391094698.942884</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07195421129206192</v>
+        <v>0.07650901807586737</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0396579994613457</v>
+        <v>0.04982873699158775</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1898554380.145967</v>
+        <v>1170333928.438836</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1147944006969043</v>
+        <v>0.08552323010030782</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03706311433554815</v>
+        <v>0.02856211774977381</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2803265072.146416</v>
+        <v>2940854592.757656</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1944684902124612</v>
+        <v>0.1403244648492822</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05123762167160559</v>
+        <v>0.03935660939426206</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1286618009.526331</v>
+        <v>1397031802.776172</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1201632172390895</v>
+        <v>0.1148683547799119</v>
       </c>
       <c r="G34" t="n">
-        <v>0.027432478305255</v>
+        <v>0.01801745750784539</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1337607437.945807</v>
+        <v>1025624553.130334</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07767447607463593</v>
+        <v>0.08065104596046151</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04103284118685466</v>
+        <v>0.02887421530213992</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2768708265.346848</v>
+        <v>3117156987.447735</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1566249852014636</v>
+        <v>0.1715681117364835</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02046531091232518</v>
+        <v>0.02629181011277109</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2832219227.811584</v>
+        <v>2287559166.286371</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07495370693037602</v>
+        <v>0.08604401745039252</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04223258118315908</v>
+        <v>0.0299632268331005</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,16 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1407482391.029133</v>
+        <v>1413005508.820207</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08817321313546377</v>
+        <v>0.1201481550403907</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02837830700538983</v>
+        <v>0.02872580514595336</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1364928504.587428</v>
+        <v>1652135640.117787</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1726028664990147</v>
+        <v>0.1854136138708262</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02745938248517171</v>
+        <v>0.02499847591641632</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1529867249.148114</v>
+        <v>1468919696.776972</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1336026553108988</v>
+        <v>0.125307266704871</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04580892861266218</v>
+        <v>0.05350943048680786</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2379951865.054502</v>
+        <v>1849428218.042398</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1305479232828316</v>
+        <v>0.1281653124475097</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03952293286356244</v>
+        <v>0.03906529371503131</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2770036308.880561</v>
+        <v>3135970928.642528</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1023024551660075</v>
+        <v>0.1078373842175005</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03229473920010985</v>
+        <v>0.03998319821393423</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2871625906.639232</v>
+        <v>2724347689.560335</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1415227383156461</v>
+        <v>0.1662089512028888</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01656730894071924</v>
+        <v>0.02416856020654665</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1835306051.844611</v>
+        <v>1499962400.416562</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1006984268372269</v>
+        <v>0.06576309625938503</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03204748497721608</v>
+        <v>0.02243133134264982</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1934015967.648949</v>
+        <v>1846297798.199093</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1201961800969449</v>
+        <v>0.1757631143991962</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04576314260834223</v>
+        <v>0.05542312955663929</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4539686263.111571</v>
+        <v>5173828507.652656</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1683979235301213</v>
+        <v>0.1702831544229712</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03870690677350943</v>
+        <v>0.03912118219123196</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3662865511.209289</v>
+        <v>3564260519.713002</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2029205478143138</v>
+        <v>0.1784310434704899</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05901414120875235</v>
+        <v>0.05096150098398366</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2988723452.646656</v>
+        <v>4182530116.559577</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09779431423361322</v>
+        <v>0.08649952517166479</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02715865156269</v>
+        <v>0.03628514911738932</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,16 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1792519566.201075</v>
+        <v>1902509133.872985</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1536438499042891</v>
+        <v>0.1442821586670634</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0293119336853189</v>
+        <v>0.03577826949154173</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2821515663.757291</v>
+        <v>2687248653.08137</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1308922854361923</v>
+        <v>0.1379298103073809</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05299662901080096</v>
+        <v>0.04382755097382188</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>969963203.1105092</v>
+        <v>1435528796.154097</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1578199132188205</v>
+        <v>0.1969163754776702</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04518015045774311</v>
+        <v>0.05044543175818916</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4285844273.79192</v>
+        <v>4907558069.452516</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1363270657250996</v>
+        <v>0.1140062605689619</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04969193953572664</v>
+        <v>0.04679902689742346</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2369530190.64358</v>
+        <v>3769483799.379358</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1522732917395501</v>
+        <v>0.2045932264166777</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03491717252489767</v>
+        <v>0.02669877396197988</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4556446857.875706</v>
+        <v>4529929887.691174</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1536063378065814</v>
+        <v>0.1370317430448106</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04213155599018608</v>
+        <v>0.04280377720462922</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3118765601.523232</v>
+        <v>3735563911.538469</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2056838843143829</v>
+        <v>0.2240691537354311</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02979869936214054</v>
+        <v>0.03258958936899423</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1667399130.16721</v>
+        <v>1438671099.204432</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1126208343726783</v>
+        <v>0.1532645289850611</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0461739021027743</v>
+        <v>0.0474644309386231</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4491786307.757604</v>
+        <v>4592315352.624691</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1522570686575931</v>
+        <v>0.1838324426697901</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01946563706898931</v>
+        <v>0.02327932970759974</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1514983164.884618</v>
+        <v>1517683906.832195</v>
       </c>
       <c r="F58" t="n">
-        <v>0.126089444846668</v>
+        <v>0.1291228805515344</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02401557197554876</v>
+        <v>0.03263391158737425</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3942750528.520277</v>
+        <v>4780239669.947992</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08701613411944778</v>
+        <v>0.0873312229551039</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03901490016049335</v>
+        <v>0.0464271208391316</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3738015314.903579</v>
+        <v>3348804091.869575</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1725072207117457</v>
+        <v>0.1831440405074511</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02024695181686572</v>
+        <v>0.02108832374171777</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2077736568.939158</v>
+        <v>2616135660.828567</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1240504162839834</v>
+        <v>0.1368096471951614</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02658105937275056</v>
+        <v>0.03127214602986996</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1279340974.462045</v>
+        <v>1822447104.224093</v>
       </c>
       <c r="F62" t="n">
-        <v>0.158691357050235</v>
+        <v>0.1351953689343216</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03107775545686891</v>
+        <v>0.03766834477787349</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,19 +2188,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3604242092.998183</v>
+        <v>4811802502.254946</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06985463349458337</v>
+        <v>0.0647809489505099</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04306091968989206</v>
+        <v>0.04774109064263896</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4958403272.517798</v>
+        <v>3706824564.531816</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1357777604095784</v>
+        <v>0.1466216550198725</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03143724701218849</v>
+        <v>0.02408160630895636</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5995971895.954125</v>
+        <v>5477403454.634331</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1116003820899095</v>
+        <v>0.1454741429020551</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0210754616111252</v>
+        <v>0.02969335236323127</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3659404179.969204</v>
+        <v>5094876311.457923</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1532863718837046</v>
+        <v>0.1272469048279661</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04528633348937637</v>
+        <v>0.03655494193164541</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2708712827.129888</v>
+        <v>2729802826.10416</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09050963368913016</v>
+        <v>0.06476717795450948</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04381835468775045</v>
+        <v>0.04686628971008715</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5416004706.985308</v>
+        <v>5989046743.919487</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1135015066915869</v>
+        <v>0.1536615037779014</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04705848219391923</v>
+        <v>0.04784990230708182</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1616293576.316676</v>
+        <v>1904735832.684283</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1692162930505632</v>
+        <v>0.1561855658089475</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04969437121990569</v>
+        <v>0.04619781036245255</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2527980084.648645</v>
+        <v>2777967108.938884</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09074624879210577</v>
+        <v>0.06295793074879442</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0492658392015432</v>
+        <v>0.04355025014022777</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4114750613.649221</v>
+        <v>4300917540.134836</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1293699054401035</v>
+        <v>0.126098923738397</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02468682272066295</v>
+        <v>0.02306400930288585</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2029125460.548299</v>
+        <v>1992336406.465442</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1026154337654648</v>
+        <v>0.07131876499248842</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03727934629843487</v>
+        <v>0.04285138611659278</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2467278856.582973</v>
+        <v>2801839283.266332</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09359675507830095</v>
+        <v>0.07154844518818379</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04192159299561175</v>
+        <v>0.04729793703115702</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3363881290.068539</v>
+        <v>3016495924.64084</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1561246974454423</v>
+        <v>0.1254830823857881</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03108211008365912</v>
+        <v>0.02733901285801826</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1819927769.30428</v>
+        <v>1887379195.88697</v>
       </c>
       <c r="F75" t="n">
-        <v>0.134680992340633</v>
+        <v>0.1120927222502706</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02835431279177244</v>
+        <v>0.0248252888065053</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3500398688.080986</v>
+        <v>3624227002.690523</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1234071832788037</v>
+        <v>0.1120716660221014</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02321710143082624</v>
+        <v>0.02385500791943929</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,16 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2024811126.870093</v>
+        <v>1610500323.035318</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1602007625373635</v>
+        <v>0.1354135131351629</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02992357905308564</v>
+        <v>0.02037345210529314</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3972839626.554839</v>
+        <v>3131441755.836862</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09497537079128429</v>
+        <v>0.112515326816497</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05571209132604966</v>
+        <v>0.03569936191462199</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2642,16 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1610970196.449471</v>
+        <v>1233087871.092963</v>
       </c>
       <c r="F79" t="n">
-        <v>0.128633216825955</v>
+        <v>0.1217439351919642</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03446753312678767</v>
+        <v>0.02946070501298732</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2670,13 +2670,13 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3724241802.452948</v>
+        <v>3704509106.20359</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08591705699740559</v>
+        <v>0.1030545488589336</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0351287610466772</v>
+        <v>0.02902536570242735</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3147403240.489405</v>
+        <v>3178891058.850517</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09011140801953389</v>
+        <v>0.098627703983069</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02100557083736851</v>
+        <v>0.02674678144830894</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,22 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5517022093.491855</v>
+        <v>3597599792.652385</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1339589584779554</v>
+        <v>0.1676225508895902</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02277440489188669</v>
+        <v>0.02725087968622067</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2187748641.281414</v>
+        <v>1856144377.718165</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1545747430539268</v>
+        <v>0.151167204887653</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04075723176743843</v>
+        <v>0.03053562689818973</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2498271855.163394</v>
+        <v>2137830942.141027</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1000818224791391</v>
+        <v>0.1107593675363843</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04536911214712411</v>
+        <v>0.04137808159389514</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3514545711.943264</v>
+        <v>2835872120.049967</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1834738496970739</v>
+        <v>0.157098923265353</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04794386810640879</v>
+        <v>0.04565275222482196</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,13 +2838,13 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2587610308.014206</v>
+        <v>1701124585.981902</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1414677699845386</v>
+        <v>0.1505681121800368</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01743718625692383</v>
+        <v>0.02079467767418239</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1145361321.678554</v>
+        <v>1392221517.367129</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1645808379988573</v>
+        <v>0.1342487307658396</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04025200841059327</v>
+        <v>0.03515134988640269</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3196265820.778341</v>
+        <v>3240643496.750916</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1180392435643219</v>
+        <v>0.1418277724123173</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0315076348720803</v>
+        <v>0.04001609535048019</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3486773044.424291</v>
+        <v>2718980721.200914</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1260592846747244</v>
+        <v>0.1387639750291679</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02721160056822044</v>
+        <v>0.03595443410439891</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1546573279.645709</v>
+        <v>1420571047.047877</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1286203350247546</v>
+        <v>0.1274681533566613</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04818915099469344</v>
+        <v>0.03398115963861016</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1329401449.074313</v>
+        <v>1371881642.627406</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474091618253328</v>
+        <v>0.1371937080179989</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03811687693558905</v>
+        <v>0.03923962335291743</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2076532293.209148</v>
+        <v>1921218427.578736</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09434035417883574</v>
+        <v>0.09331085379446481</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03630925976764322</v>
+        <v>0.03051576457021807</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4132856053.855461</v>
+        <v>4948686941.045682</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1013947972118725</v>
+        <v>0.1017265917847399</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03898167620506417</v>
+        <v>0.05428554708759836</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1611384437.353138</v>
+        <v>1948032182.934593</v>
       </c>
       <c r="F94" t="n">
-        <v>0.142625457214219</v>
+        <v>0.1640112508896512</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03262554902318726</v>
+        <v>0.03196103928486946</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3225918973.465793</v>
+        <v>2656938144.146973</v>
       </c>
       <c r="F95" t="n">
-        <v>0.136884926600233</v>
+        <v>0.135719030765955</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04830035360962149</v>
+        <v>0.03311691743553721</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1770674092.688804</v>
+        <v>1746482608.183011</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0992416143847383</v>
+        <v>0.1042407583018315</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03445145927854575</v>
+        <v>0.03624534840577012</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,13 +3146,13 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4224525327.421611</v>
+        <v>3685591221.500281</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1411548281041427</v>
+        <v>0.1641494746887324</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0190001693594834</v>
+        <v>0.02817600809127846</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3065661693.100784</v>
+        <v>2883952221.904696</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08527996717142507</v>
+        <v>0.08992175027330603</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02701493402338067</v>
+        <v>0.02664589702641109</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3206804442.37198</v>
+        <v>3393161502.029606</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1014841567103606</v>
+        <v>0.1193647758574124</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02348500684959707</v>
+        <v>0.02544295792963992</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3166394294.766881</v>
+        <v>3403516845.45114</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1245544537615444</v>
+        <v>0.1327187364819878</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01973563253759615</v>
+        <v>0.0187437964302044</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,16 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3092560968.736902</v>
+        <v>2335844438.280071</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1972540607847599</v>
+        <v>0.1596118486374027</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04252019972325704</v>
+        <v>0.04370758435446023</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_274.xlsx
+++ b/output/fit_clients/fit_round_274.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2525086957.451881</v>
+        <v>2164426431.076227</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07854908696770109</v>
+        <v>0.1123534098178581</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02837097674187277</v>
+        <v>0.02851305338577446</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2408478758.280482</v>
+        <v>1712110509.730788</v>
       </c>
       <c r="F3" t="n">
-        <v>0.169999479713742</v>
+        <v>0.1697176259444364</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0376140497724099</v>
+        <v>0.0411805386416998</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4398174222.920388</v>
+        <v>4617847462.274094</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1030982963207228</v>
+        <v>0.1405607963494521</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0376082944852271</v>
+        <v>0.02571687877400885</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>146</v>
+      </c>
+      <c r="J4" t="n">
+        <v>274</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,16 +606,25 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3730285196.363435</v>
+        <v>3686286037.56018</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1069471900956664</v>
+        <v>0.1031543886060058</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03960627603195475</v>
+        <v>0.04572834258786956</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>110</v>
+      </c>
+      <c r="J5" t="n">
+        <v>273</v>
+      </c>
+      <c r="K5" t="n">
+        <v>77.71860629338974</v>
       </c>
     </row>
     <row r="6">
@@ -598,17 +643,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2244342945.665275</v>
+        <v>1965360378.227797</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1060243356552408</v>
+        <v>0.1278862334210024</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04078121681363779</v>
+        <v>0.03476304368903439</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3043984999.533576</v>
+        <v>2235333014.793511</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1000274234150678</v>
+        <v>0.08980755734512143</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04492346089631295</v>
+        <v>0.04652904288019449</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3433210551.015606</v>
+        <v>3612154236.954563</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1970450956252661</v>
+        <v>0.2194835485837885</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03252303092626833</v>
+        <v>0.03322493057647247</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>72</v>
+      </c>
+      <c r="J8" t="n">
+        <v>272</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1681939798.366938</v>
+        <v>1424634515.932741</v>
       </c>
       <c r="F9" t="n">
-        <v>0.152978396462142</v>
+        <v>0.1243554969782268</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03178376981378013</v>
+        <v>0.03360937329754379</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4457314336.509969</v>
+        <v>5876476607.691067</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1473885999546347</v>
+        <v>0.1564522736973119</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04027667920424622</v>
+        <v>0.04203462590965923</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>246</v>
+      </c>
+      <c r="J10" t="n">
+        <v>274</v>
+      </c>
+      <c r="K10" t="n">
+        <v>98.24757977736357</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3991067482.363943</v>
+        <v>4059158893.505058</v>
       </c>
       <c r="F11" t="n">
-        <v>0.162319216218194</v>
+        <v>0.1454488130357355</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04773152084087651</v>
+        <v>0.04029080809422551</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>110</v>
+      </c>
+      <c r="J11" t="n">
+        <v>274</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2014538177.29276</v>
+        <v>3289848070.082582</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1735886629957686</v>
+        <v>0.1706533623403395</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05367789573966611</v>
+        <v>0.04818953582052119</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +884,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4577057603.193301</v>
+        <v>4026919686.65503</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07159878270557304</v>
+        <v>0.0694320654730875</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02135413065004635</v>
+        <v>0.02821197181172015</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>139</v>
+      </c>
+      <c r="J13" t="n">
+        <v>274</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +919,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3559583734.424636</v>
+        <v>2945992158.510306</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1889688310222044</v>
+        <v>0.1842978110195703</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03045462057939943</v>
+        <v>0.02786889046175003</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>56</v>
+      </c>
+      <c r="J14" t="n">
+        <v>272</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1840739650.460577</v>
+        <v>1459350109.284852</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06989933199709839</v>
+        <v>0.07927269647058995</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04714815288178206</v>
+        <v>0.04242980755509514</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +995,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2219314060.585875</v>
+        <v>1852559105.115915</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1063097057329638</v>
+        <v>0.07821317410674226</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03875538838400791</v>
+        <v>0.04561701585186963</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1024,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4879350086.022394</v>
+        <v>4888238175.686849</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1142703667397454</v>
+        <v>0.1494860187091498</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04753881994945614</v>
+        <v>0.03734598464448717</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>131</v>
+      </c>
+      <c r="J17" t="n">
+        <v>273</v>
+      </c>
+      <c r="K17" t="n">
+        <v>86.70653659386026</v>
       </c>
     </row>
     <row r="18">
@@ -934,17 +1067,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2979353593.063725</v>
+        <v>4012546274.008275</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1546523863014486</v>
+        <v>0.1651268876307829</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03007211591273888</v>
+        <v>0.025321992698919</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>69</v>
+      </c>
+      <c r="J18" t="n">
+        <v>274</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1102,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1344225349.137203</v>
+        <v>859815056.5585383</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1310433736182644</v>
+        <v>0.1247299524079993</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0215144929839785</v>
+        <v>0.02055025715164398</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1964978540.130567</v>
+        <v>2313715184.596619</v>
       </c>
       <c r="F20" t="n">
-        <v>0.153531251056835</v>
+        <v>0.1008453489789548</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02637447438768294</v>
+        <v>0.02271717262353908</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1172,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2195343980.725475</v>
+        <v>2340571427.065814</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08602825579834925</v>
+        <v>0.09395876215741664</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03632776985904573</v>
+        <v>0.03323851945677655</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1207,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2986143984.752652</v>
+        <v>3740358917.280979</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1144049468402867</v>
+        <v>0.1123262474657598</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04031098906975584</v>
+        <v>0.05243561574793463</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>71</v>
+      </c>
+      <c r="J22" t="n">
+        <v>274</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1236,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1521108472.113406</v>
+        <v>1465824928.573223</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1554462566997251</v>
+        <v>0.1143156951086749</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05489414867431228</v>
+        <v>0.04752997500665895</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1271,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2742269596.032331</v>
+        <v>2799194048.478625</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1352307051602339</v>
+        <v>0.109111255610958</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03014413310474491</v>
+        <v>0.03552324058956541</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>82</v>
+      </c>
+      <c r="J24" t="n">
+        <v>273</v>
+      </c>
+      <c r="K24" t="n">
+        <v>36.83607881184327</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1179014160.387844</v>
+        <v>1055659902.245222</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07612497160309671</v>
+        <v>0.09334781990773386</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02408268844242715</v>
+        <v>0.01865076806026918</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1349,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1332504864.867114</v>
+        <v>910715738.5851301</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09693612642135323</v>
+        <v>0.09209893965057804</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03750405620990326</v>
+        <v>0.02623422782483169</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,17 +1384,24 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4457927022.294601</v>
+        <v>3983645793.779141</v>
       </c>
       <c r="F27" t="n">
-        <v>0.153867458554182</v>
+        <v>0.1328329817863498</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01972789064582735</v>
+        <v>0.01759506415989216</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>112</v>
+      </c>
+      <c r="J27" t="n">
+        <v>274</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1413,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3451973702.533432</v>
+        <v>3329764321.612262</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1436315673427856</v>
+        <v>0.1162162449687747</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0340565866000284</v>
+        <v>0.0459425231059757</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>55</v>
+      </c>
+      <c r="J28" t="n">
+        <v>270</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1454,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5286043999.767075</v>
+        <v>5713376591.273915</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1160852962446199</v>
+        <v>0.1161718222841248</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0355728185631155</v>
+        <v>0.03297881079843683</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>262</v>
+      </c>
+      <c r="J29" t="n">
+        <v>274</v>
+      </c>
+      <c r="K29" t="n">
+        <v>95.04648597955891</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1838881842.411335</v>
+        <v>1556273548.492851</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1378788334299983</v>
+        <v>0.1111476445358379</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03493182129278667</v>
+        <v>0.03570410913964936</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1391094698.942884</v>
+        <v>1084835247.189592</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07650901807586737</v>
+        <v>0.09892013516930298</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04982873699158775</v>
+        <v>0.04852442697847761</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1170333928.438836</v>
+        <v>1637121437.966102</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08552323010030782</v>
+        <v>0.1205604807599187</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02856211774977381</v>
+        <v>0.0346318627033506</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2940854592.757656</v>
+        <v>2683087504.508074</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1403244648492822</v>
+        <v>0.1871073754399807</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03935660939426206</v>
+        <v>0.04527549373713088</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1397031802.776172</v>
+        <v>1310503818.857358</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1148683547799119</v>
+        <v>0.1198283311469908</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01801745750784539</v>
+        <v>0.02450643092531206</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1666,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1025624553.130334</v>
+        <v>895889672.5182515</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08065104596046151</v>
+        <v>0.09459196829044432</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02887421530213992</v>
+        <v>0.03936792979420135</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3117156987.447735</v>
+        <v>3164450034.596525</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1715681117364835</v>
+        <v>0.1613855348154914</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02629181011277109</v>
+        <v>0.02325611059482509</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2287559166.286371</v>
+        <v>2017759257.430062</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08604401745039252</v>
+        <v>0.07496063335027862</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0299632268331005</v>
+        <v>0.03728868470974013</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1771,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1413005508.820207</v>
+        <v>2173746943.484675</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1201481550403907</v>
+        <v>0.08500687297344117</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02872580514595336</v>
+        <v>0.0321950155161995</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1652135640.117787</v>
+        <v>1413083263.812125</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1854136138708262</v>
+        <v>0.181911931475753</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02499847591641632</v>
+        <v>0.02921935816908707</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1841,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1468919696.776972</v>
+        <v>1806134429.263071</v>
       </c>
       <c r="F40" t="n">
-        <v>0.125307266704871</v>
+        <v>0.1323986511827922</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05350943048680786</v>
+        <v>0.04445285980041245</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1849428218.042398</v>
+        <v>1841733971.374978</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1281653124475097</v>
+        <v>0.1068045685412883</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03906529371503131</v>
+        <v>0.02975038392315647</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1905,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3135970928.642528</v>
+        <v>3084093737.254495</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1078373842175005</v>
+        <v>0.1216670812326263</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03998319821393423</v>
+        <v>0.03133171223864905</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>115</v>
+      </c>
+      <c r="J42" t="n">
+        <v>271</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1940,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2724347689.560335</v>
+        <v>2891511904.555176</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1662089512028888</v>
+        <v>0.129134617500576</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02416856020654665</v>
+        <v>0.0193109003582245</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1975,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1499962400.416562</v>
+        <v>2318989553.445804</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06576309625938503</v>
+        <v>0.09413635602185592</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02243133134264982</v>
+        <v>0.03236887556801866</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2010,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1846297798.199093</v>
+        <v>2423638722.033358</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1757631143991962</v>
+        <v>0.1890003118351244</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05542312955663929</v>
+        <v>0.03546436303674701</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2045,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5173828507.652656</v>
+        <v>5258040160.829987</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1702831544229712</v>
+        <v>0.1761539771448047</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03912118219123196</v>
+        <v>0.04002635754774096</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>160</v>
+      </c>
+      <c r="J46" t="n">
+        <v>274</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,23 +2080,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3564260519.713002</v>
+        <v>3623622345.691848</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1784310434704899</v>
+        <v>0.1876141615940438</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05096150098398366</v>
+        <v>0.0372477022537421</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>123</v>
+      </c>
+      <c r="J47" t="n">
+        <v>272</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2115,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4182530116.559577</v>
+        <v>2877310576.913338</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08649952517166479</v>
+        <v>0.07246671835060904</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03628514911738932</v>
+        <v>0.03223030996371083</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>136</v>
+      </c>
+      <c r="J48" t="n">
+        <v>272</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1802,17 +2156,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1902509133.872985</v>
+        <v>1379160317.167618</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1442821586670634</v>
+        <v>0.1943900623586072</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03577826949154173</v>
+        <v>0.04220026655840275</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,16 +2191,25 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2687248653.08137</v>
+        <v>4043341368.655388</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1379298103073809</v>
+        <v>0.1637797140514642</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04382755097382188</v>
+        <v>0.0360886947227256</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>89</v>
+      </c>
+      <c r="J50" t="n">
+        <v>273</v>
+      </c>
+      <c r="K50" t="n">
+        <v>84.05362344061928</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2222,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1435528796.154097</v>
+        <v>1285764968.342423</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1969163754776702</v>
+        <v>0.1639359550008819</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05044543175818916</v>
+        <v>0.04604449341776716</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2257,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4907558069.452516</v>
+        <v>4426173085.703284</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1140062605689619</v>
+        <v>0.1008164054462477</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04679902689742346</v>
+        <v>0.04303974675790159</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>173</v>
+      </c>
+      <c r="J52" t="n">
+        <v>273</v>
+      </c>
+      <c r="K52" t="n">
+        <v>89.84474121139746</v>
       </c>
     </row>
     <row r="53">
@@ -1914,16 +2300,25 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3769483799.379358</v>
+        <v>3219618650.760663</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2045932264166777</v>
+        <v>0.1347932680842817</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02669877396197988</v>
+        <v>0.03188581372948739</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>39</v>
+      </c>
+      <c r="J53" t="n">
+        <v>273</v>
+      </c>
+      <c r="K53" t="n">
+        <v>51.02021344002031</v>
       </c>
     </row>
     <row r="54">
@@ -1942,16 +2337,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4529929887.691174</v>
+        <v>3016999367.492303</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1370317430448106</v>
+        <v>0.1453054757396335</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04280377720462922</v>
+        <v>0.03999694997213608</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>145</v>
+      </c>
+      <c r="J54" t="n">
+        <v>273</v>
+      </c>
+      <c r="K54" t="n">
+        <v>44.43278143312214</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2368,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3735563911.538469</v>
+        <v>4428246572.13987</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2240691537354311</v>
+        <v>0.2103664212761729</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03258958936899423</v>
+        <v>0.03089261674152953</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>123</v>
+      </c>
+      <c r="J55" t="n">
+        <v>274</v>
+      </c>
+      <c r="K55" t="n">
+        <v>93.28743279742916</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1438671099.204432</v>
+        <v>1830007218.943666</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1532645289850611</v>
+        <v>0.1161818859071431</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0474644309386231</v>
+        <v>0.03905413006899525</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2440,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4592315352.624691</v>
+        <v>3364276061.730951</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1838324426697901</v>
+        <v>0.1843889457501805</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02327932970759974</v>
+        <v>0.0229017650129378</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>110</v>
+      </c>
+      <c r="J57" t="n">
+        <v>272</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2481,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1517683906.832195</v>
+        <v>1872455050.21542</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1291228805515344</v>
+        <v>0.1739781601056199</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03263391158737425</v>
+        <v>0.03259008097292133</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2510,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4780239669.947992</v>
+        <v>4151867951.499122</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0873312229551039</v>
+        <v>0.1306317892312956</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0464271208391316</v>
+        <v>0.04070709700777599</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>132</v>
+      </c>
+      <c r="J59" t="n">
+        <v>274</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2545,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3348804091.869575</v>
+        <v>3276055085.882817</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1831440405074511</v>
+        <v>0.1941215608486051</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02108832374171777</v>
+        <v>0.03236576659179227</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>41</v>
+      </c>
+      <c r="J60" t="n">
+        <v>271</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2580,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2616135660.828567</v>
+        <v>2764802800.374659</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1368096471951614</v>
+        <v>0.1423285732043012</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03127214602986996</v>
+        <v>0.02030816825438654</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>8</v>
+      </c>
+      <c r="J61" t="n">
+        <v>259</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1822447104.224093</v>
+        <v>2079835596.09382</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1351953689343216</v>
+        <v>0.1271846030112811</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03766834477787349</v>
+        <v>0.0427626832395372</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2650,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4811802502.254946</v>
+        <v>5357734022.404352</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0647809489505099</v>
+        <v>0.0795687791670779</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04774109064263896</v>
+        <v>0.04472502202967573</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>133</v>
+      </c>
+      <c r="J63" t="n">
+        <v>273</v>
+      </c>
+      <c r="K63" t="n">
+        <v>87.68674609211651</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2687,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3706824564.531816</v>
+        <v>4374212766.153204</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1466216550198725</v>
+        <v>0.1263973002568035</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02408160630895636</v>
+        <v>0.02201838365666199</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>135</v>
+      </c>
+      <c r="J64" t="n">
+        <v>273</v>
+      </c>
+      <c r="K64" t="n">
+        <v>90.65490622895661</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2724,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5477403454.634331</v>
+        <v>4522090653.636263</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1454741429020551</v>
+        <v>0.1224958735809513</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02969335236323127</v>
+        <v>0.01990072085260064</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>220</v>
+      </c>
+      <c r="J65" t="n">
+        <v>274</v>
+      </c>
+      <c r="K65" t="n">
+        <v>93.01604485764169</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2761,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5094876311.457923</v>
+        <v>4303045182.153855</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1272469048279661</v>
+        <v>0.1216938215887122</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03655494193164541</v>
+        <v>0.03296399685303502</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>135</v>
+      </c>
+      <c r="J66" t="n">
+        <v>274</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2729802826.10416</v>
+        <v>2978984330.53254</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06476717795450948</v>
+        <v>0.0873285282549483</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04686628971008715</v>
+        <v>0.04215945917568861</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>258</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2831,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5989046743.919487</v>
+        <v>5649297692.32402</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1536615037779014</v>
+        <v>0.1474721322862525</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04784990230708182</v>
+        <v>0.0432772415136168</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>141</v>
+      </c>
+      <c r="J68" t="n">
+        <v>274</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2866,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1904735832.684283</v>
+        <v>2104722356.48307</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1561855658089475</v>
+        <v>0.1121265955360185</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04619781036245255</v>
+        <v>0.04599052875829948</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2901,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2777967108.938884</v>
+        <v>3733794521.1517</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06295793074879442</v>
+        <v>0.07388205319251727</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04355025014022777</v>
+        <v>0.04585941517634713</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>40</v>
+      </c>
+      <c r="J70" t="n">
+        <v>270</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,16 +2942,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4300917540.134836</v>
+        <v>3426734007.333003</v>
       </c>
       <c r="F71" t="n">
-        <v>0.126098923738397</v>
+        <v>0.1577648110567348</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02306400930288585</v>
+        <v>0.02372958030812545</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>207</v>
+      </c>
+      <c r="J71" t="n">
+        <v>273</v>
+      </c>
+      <c r="K71" t="n">
+        <v>58.49760903128703</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2973,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1992336406.465442</v>
+        <v>1754631645.668256</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07131876499248842</v>
+        <v>0.1013813168349995</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04285138611659278</v>
+        <v>0.0472016022886969</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,22 +3008,31 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2801839283.266332</v>
+        <v>2596359648.732</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07154844518818379</v>
+        <v>0.101013207347667</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04729793703115702</v>
+        <v>0.0380775639324657</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>17</v>
+      </c>
+      <c r="J73" t="n">
+        <v>273</v>
+      </c>
+      <c r="K73" t="n">
+        <v>41.80355169397927</v>
       </c>
     </row>
     <row r="74">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3016495924.64084</v>
+        <v>2930701086.420568</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1254830823857881</v>
+        <v>0.1778796788686466</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02733901285801826</v>
+        <v>0.03385770619847545</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>76</v>
+      </c>
+      <c r="J74" t="n">
+        <v>268</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1887379195.88697</v>
+        <v>1541414177.556722</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1120927222502706</v>
+        <v>0.1566214626871069</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0248252888065053</v>
+        <v>0.02311083946478265</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3115,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3624227002.690523</v>
+        <v>4759117497.184946</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1120716660221014</v>
+        <v>0.1108609534568744</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02385500791943929</v>
+        <v>0.02312289828165009</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>128</v>
+      </c>
+      <c r="J76" t="n">
+        <v>274</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1610500323.035318</v>
+        <v>1639741536.837617</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1354135131351629</v>
+        <v>0.1670065601901487</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02037345210529314</v>
+        <v>0.02697675163302367</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3185,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3131441755.836862</v>
+        <v>4695763736.218289</v>
       </c>
       <c r="F78" t="n">
-        <v>0.112515326816497</v>
+        <v>0.1199964653901544</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03569936191462199</v>
+        <v>0.05619236997895635</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>137</v>
+      </c>
+      <c r="J78" t="n">
+        <v>274</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3220,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1233087871.092963</v>
+        <v>1923241929.807404</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1217439351919642</v>
+        <v>0.1669264339658117</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02946070501298732</v>
+        <v>0.03542342671720358</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3255,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3704509106.20359</v>
+        <v>4902546395.492192</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1030545488589336</v>
+        <v>0.07769081647476549</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02902536570242735</v>
+        <v>0.03034081066535868</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>134</v>
+      </c>
+      <c r="J80" t="n">
+        <v>273</v>
+      </c>
+      <c r="K80" t="n">
+        <v>69.82558389809378</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3292,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3178891058.850517</v>
+        <v>4493749841.337558</v>
       </c>
       <c r="F81" t="n">
-        <v>0.098627703983069</v>
+        <v>0.08588595645727232</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02674678144830894</v>
+        <v>0.02112382128356597</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>125</v>
+      </c>
+      <c r="J81" t="n">
+        <v>274</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3327,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3597599792.652385</v>
+        <v>5366300297.769394</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1676225508895902</v>
+        <v>0.2125171522295912</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02725087968622067</v>
+        <v>0.02008538501016616</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>204</v>
+      </c>
+      <c r="J82" t="n">
+        <v>274</v>
+      </c>
+      <c r="K82" t="n">
+        <v>93.70235002130306</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1856144377.718165</v>
+        <v>1587416015.652065</v>
       </c>
       <c r="F83" t="n">
-        <v>0.151167204887653</v>
+        <v>0.1264501190466494</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03053562689818973</v>
+        <v>0.03193974033275611</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2137830942.141027</v>
+        <v>2160386456.770953</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1107593675363843</v>
+        <v>0.1141789883951338</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04137808159389514</v>
+        <v>0.04521453669769619</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,16 +3440,25 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2835872120.049967</v>
+        <v>3497340518.67141</v>
       </c>
       <c r="F85" t="n">
-        <v>0.157098923265353</v>
+        <v>0.1660852494736171</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04565275222482196</v>
+        <v>0.04247229329139791</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>38</v>
+      </c>
+      <c r="J85" t="n">
+        <v>273</v>
+      </c>
+      <c r="K85" t="n">
+        <v>71.53049494016656</v>
       </c>
     </row>
     <row r="86">
@@ -2838,17 +3477,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1701124585.981902</v>
+        <v>2398128170.398291</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1505681121800368</v>
+        <v>0.1191135903237215</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02079467767418239</v>
+        <v>0.01783461757201706</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3512,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1392221517.367129</v>
+        <v>1359452719.582826</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1342487307658396</v>
+        <v>0.122591782302133</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03515134988640269</v>
+        <v>0.04131206739309228</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3547,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3240643496.750916</v>
+        <v>3435166670.253124</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1418277724123173</v>
+        <v>0.1253270642025565</v>
       </c>
       <c r="G88" t="n">
-        <v>0.04001609535048019</v>
+        <v>0.02820520711341512</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>38</v>
+      </c>
+      <c r="J88" t="n">
+        <v>255</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2718980721.200914</v>
+        <v>2198525926.420178</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1387639750291679</v>
+        <v>0.1048693910583072</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03595443410439891</v>
+        <v>0.02913789376402751</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>21</v>
+      </c>
+      <c r="J89" t="n">
+        <v>271</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1420571047.047877</v>
+        <v>2024839159.422573</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1274681533566613</v>
+        <v>0.1194546102433698</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03398115963861016</v>
+        <v>0.04727573533125887</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1371881642.627406</v>
+        <v>1594207652.498468</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1371937080179989</v>
+        <v>0.1261567136716674</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03923962335291743</v>
+        <v>0.04948872759451715</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1921218427.578736</v>
+        <v>2065786755.75016</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09331085379446481</v>
+        <v>0.06775125604606089</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03051576457021807</v>
+        <v>0.03303912556303619</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,16 +3722,25 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4948686941.045682</v>
+        <v>4491298215.886835</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1017265917847399</v>
+        <v>0.1040901501645261</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05428554708759836</v>
+        <v>0.04386550297689516</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>119</v>
+      </c>
+      <c r="J93" t="n">
+        <v>273</v>
+      </c>
+      <c r="K93" t="n">
+        <v>92.85204060571232</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1948032182.934593</v>
+        <v>1874322225.18949</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1640112508896512</v>
+        <v>0.1624147729411553</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03196103928486946</v>
+        <v>0.02613039534298782</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2656938144.146973</v>
+        <v>2557590280.048291</v>
       </c>
       <c r="F95" t="n">
-        <v>0.135719030765955</v>
+        <v>0.1020385457069314</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03311691743553721</v>
+        <v>0.0325662598337795</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1746482608.183011</v>
+        <v>2225298956.580864</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1042407583018315</v>
+        <v>0.1146502136589224</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03624534840577012</v>
+        <v>0.03988030250464698</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3685591221.500281</v>
+        <v>4388520330.74181</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1641494746887324</v>
+        <v>0.1285554615192263</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02817600809127846</v>
+        <v>0.0238255627210949</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>135</v>
+      </c>
+      <c r="J97" t="n">
+        <v>274</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2883952221.904696</v>
+        <v>3854282197.950822</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08992175027330603</v>
+        <v>0.08297421403197214</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02664589702641109</v>
+        <v>0.02291431159624806</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>65</v>
+      </c>
+      <c r="J98" t="n">
+        <v>274</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3393161502.029606</v>
+        <v>2888371128.901201</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1193647758574124</v>
+        <v>0.1387071933423448</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02544295792963992</v>
+        <v>0.03468965175817085</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3403516845.45114</v>
+        <v>2941585490.33463</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1327187364819878</v>
+        <v>0.1681370879453239</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0187437964302044</v>
+        <v>0.02618682736920297</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>116</v>
+      </c>
+      <c r="J100" t="n">
+        <v>273</v>
+      </c>
+      <c r="K100" t="n">
+        <v>41.95022436322448</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2335844438.280071</v>
+        <v>2376076475.485364</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1596118486374027</v>
+        <v>0.1924630475212053</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04370758435446023</v>
+        <v>0.0516285514113215</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>23</v>
+      </c>
+      <c r="J101" t="n">
+        <v>271</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
